--- a/schemas/individuals.xlsx
+++ b/schemas/individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF2EEDA-9779-5A45-A7C9-CFFD571A35C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D420D3-EC62-F041-A741-EF44122D937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2980" windowWidth="28040" windowHeight="16280" xr2:uid="{87B92365-A1C0-5249-B08E-5FDC9D9FECD5}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="20480" windowHeight="16280" xr2:uid="{87B92365-A1C0-5249-B08E-5FDC9D9FECD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>diseases_ageOfOnset_iso8601duration</t>
   </si>
@@ -265,150 +265,192 @@
     <t>measures_procedure_procedureCode_label</t>
   </si>
   <si>
+    <t>pedigrees_disease_diseaseCode_id</t>
+  </si>
+  <si>
+    <t>pedigrees_disease_notes</t>
+  </si>
+  <si>
+    <t>pedigrees_disease_severity_id</t>
+  </si>
+  <si>
+    <t>pedigrees_disease_severity_label</t>
+  </si>
+  <si>
+    <t>pedigrees_disease_stage_id</t>
+  </si>
+  <si>
+    <t>pedigrees_disease_stage_label</t>
+  </si>
+  <si>
+    <t>pedigrees_id</t>
+  </si>
+  <si>
+    <t>pedigrees_members_affected</t>
+  </si>
+  <si>
+    <t>pedigrees_members_memberId</t>
+  </si>
+  <si>
+    <t>pedigrees_members_role_id</t>
+  </si>
+  <si>
+    <t>pedigrees_members_role_label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_evidence_evidenceCode_id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_evidence_evidenceCode_label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_evidence_reference_id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_evidence_reference_notes</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_evidence_reference_reference</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_excluded</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_featureType_id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_featureType_label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_modifiers_id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_modifiers_label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_notes</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_onset_iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_onset_start</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_onset_id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_onset_label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_end_iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_start_iso8601duration</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_days</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_weeks</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_end</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_start</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_resolution_label</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_severity_id</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_severity_label</t>
+  </si>
+  <si>
+    <t>sex_id</t>
+  </si>
+  <si>
+    <t>sex_label</t>
+  </si>
+  <si>
+    <t>treatments_ageAtOnset_iso8601duration</t>
+  </si>
+  <si>
+    <t>treatments_cumulativeDose_referenceRange_id</t>
+  </si>
+  <si>
+    <t>treatments_cumulativeDose_referenceRange_label</t>
+  </si>
+  <si>
+    <t>treatments_doseIntervals_id</t>
+  </si>
+  <si>
+    <t>treatments_treatmentCode_label</t>
+  </si>
+  <si>
+    <t>pedigrees_disease_familyHistory</t>
+  </si>
+  <si>
+    <t>phenotypicFeatures_onset_end</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>NCIT:C42331</t>
+  </si>
+  <si>
+    <t>African</t>
+  </si>
+  <si>
+    <t>HG00096</t>
+  </si>
+  <si>
+    <t>OPCS4:L46.3</t>
+  </si>
+  <si>
+    <t>OPCS(v4-0.0):Ligation of visceral branch of abdominal aorta NEC</t>
+  </si>
+  <si>
+    <t>LOINC:35925-4</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>NCIT:C49671</t>
+  </si>
+  <si>
+    <t>Kilogram per Square Meter</t>
+  </si>
+  <si>
+    <t>NCIT:C20197</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>24-9-2021</t>
+  </si>
+  <si>
     <t>pedigrees_disease_ageOfOnset</t>
   </si>
   <si>
-    <t>pedigrees_disease_diseaseCode_id</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_diseaseCode_label</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_notes</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_severity_id</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_severity_label</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_stage_id</t>
-  </si>
-  <si>
-    <t>pedigrees_disease_stage_label</t>
-  </si>
-  <si>
-    <t>pedigrees_id</t>
-  </si>
-  <si>
-    <t>pedigrees_members_affected</t>
-  </si>
-  <si>
-    <t>pedigrees_members_memberId</t>
-  </si>
-  <si>
-    <t>pedigrees_members_role_id</t>
-  </si>
-  <si>
-    <t>pedigrees_members_role_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_evidenceCode_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_evidenceCode_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_reference_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_reference_notes</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_evidence_reference_reference</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_excluded</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_featureType_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_featureType_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_modifiers_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_modifiers_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_notes</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_iso8601duration</t>
-  </si>
-  <si>
     <t>phenotypicFeatures_onset_end_iso8601duration</t>
   </si>
   <si>
     <t>phenotypicFeatures_onset_start_iso8601duration</t>
   </si>
   <si>
-    <t>phenotypicFeatures_onset_days</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_start</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_onset_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_end_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_start_iso8601duration</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_days</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_weeks</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_end</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_start</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_resolution_label</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_severity_id</t>
-  </si>
-  <si>
-    <t>phenotypicFeatures_severity_label</t>
-  </si>
-  <si>
-    <t>sex_id</t>
-  </si>
-  <si>
-    <t>sex_label</t>
-  </si>
-  <si>
-    <t>treatments_ageAtOnset_iso8601duration</t>
-  </si>
-  <si>
-    <t>treatments_cumulativeDose_referenceRange_id</t>
-  </si>
-  <si>
-    <t>treatments_cumulativeDose_referenceRange_label</t>
-  </si>
-  <si>
-    <t>treatments_doseIntervals_id</t>
-  </si>
-  <si>
     <t>treatments_doseIntervals_label</t>
   </si>
   <si>
@@ -418,38 +460,71 @@
     <t>treatments_routeOfAdministration_label</t>
   </si>
   <si>
-    <t>treatments_treatmentCode_id</t>
-  </si>
-  <si>
-    <t>treatments_treatmentCode_label</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>f</t>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>eid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFB6B6B6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF12B300"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>fake1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF12B300"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFB6B6B6"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF66CCFF"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -472,8 +547,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,15 +867,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7517F-4859-8048-B2B9-9ACB604AA4D2}">
-  <dimension ref="A1:EE2"/>
+  <dimension ref="A1:EF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" workbookViewId="0">
-      <selection activeCell="CZ2" sqref="CZ2"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:135" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:136" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,357 +964,351 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
+        <v>135</v>
+      </c>
+      <c r="CA1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CC1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CD1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CF1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CG1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CH1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CI1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CJ1" t="s">
         <v>83</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CK1" t="s">
         <v>84</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CL1" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CM1" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CN1" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CO1" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CP1" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CQ1" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CR1" t="s">
         <v>91</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CS1" t="s">
         <v>92</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CT1" t="s">
         <v>93</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CU1" t="s">
         <v>94</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CV1" t="s">
         <v>95</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CW1" t="s">
         <v>96</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CX1" t="s">
         <v>97</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CY1" t="s">
         <v>98</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CZ1" t="s">
+        <v>136</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>137</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DE1" t="s">
         <v>99</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DF1" t="s">
         <v>100</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DG1" t="s">
         <v>101</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DH1" t="s">
         <v>102</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DI1" t="s">
         <v>103</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DJ1" t="s">
         <v>104</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DK1" t="s">
         <v>105</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DL1" t="s">
         <v>106</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DM1" t="s">
         <v>107</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DN1" t="s">
         <v>108</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DO1" t="s">
         <v>109</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DP1" t="s">
         <v>110</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DQ1" t="s">
         <v>111</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DR1" t="s">
         <v>112</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DS1" t="s">
         <v>113</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DT1" t="s">
         <v>114</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DU1" t="s">
         <v>115</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DV1" t="s">
         <v>116</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DW1" t="s">
         <v>117</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DX1" t="s">
         <v>118</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DY1" t="s">
+        <v>138</v>
+      </c>
+      <c r="DZ1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EA1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EE1" t="s">
         <v>119</v>
       </c>
-      <c r="DT1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DW1" t="s">
+      <c r="EF1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:136" ht="18" x14ac:dyDescent="0.25">
+      <c r="R2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="S2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="AD2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:135" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="AU2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="AV2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="R2" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="BB2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AA2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB2">
-        <v>2</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>129</v>
-      </c>
-      <c r="CI2" t="s">
+      <c r="BC2" s="3">
+        <v>26.63838307</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="DT2" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>129</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>129</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/schemas/individuals.xlsx
+++ b/schemas/individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D420D3-EC62-F041-A741-EF44122D937E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BD5F39-B06B-5C45-BB21-8C10B27FEF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="500" windowWidth="20480" windowHeight="16280" xr2:uid="{87B92365-A1C0-5249-B08E-5FDC9D9FECD5}"/>
+    <workbookView xWindow="1040" yWindow="620" windowWidth="20480" windowHeight="16280" xr2:uid="{87B92365-A1C0-5249-B08E-5FDC9D9FECD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
   <si>
     <t>diseases_ageOfOnset_iso8601duration</t>
   </si>
@@ -421,25 +421,10 @@
     <t>OPCS(v4-0.0):Ligation of visceral branch of abdominal aorta NEC</t>
   </si>
   <si>
-    <t>LOINC:35925-4</t>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
-    <t>NCIT:C49671</t>
-  </si>
-  <si>
-    <t>Kilogram per Square Meter</t>
-  </si>
-  <si>
     <t>NCIT:C20197</t>
   </si>
   <si>
     <t>male</t>
-  </si>
-  <si>
-    <t>24-9-2021</t>
   </si>
   <si>
     <t>pedigrees_disease_ageOfOnset</t>
@@ -487,6 +472,24 @@
       </rPr>
       <t>fake1</t>
     </r>
+  </si>
+  <si>
+    <t>LOINC:35925-4,LOINC:3141-9</t>
+  </si>
+  <si>
+    <t>BMI,Weight</t>
+  </si>
+  <si>
+    <t>24-9-2021,24-9-2021</t>
+  </si>
+  <si>
+    <t>NCIT:C49671,NCIT:C28252</t>
+  </si>
+  <si>
+    <t>Kilogram per Square Meter,Kilogram</t>
+  </si>
+  <si>
+    <t>26.63838307,85.6358</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F7517F-4859-8048-B2B9-9ACB604AA4D2}">
   <dimension ref="A1:EF2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="BC2" sqref="BC2"/>
     </sheetView>
   </sheetViews>
@@ -1108,7 +1111,7 @@
         <v>75</v>
       </c>
       <c r="BZ1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="CA1" t="s">
         <v>76</v>
@@ -1183,10 +1186,10 @@
         <v>98</v>
       </c>
       <c r="CZ1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="DA1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="DD1" t="s">
         <v>121</v>
@@ -1252,13 +1255,13 @@
         <v>118</v>
       </c>
       <c r="DY1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="DZ1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="EA1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="EE1" t="s">
         <v>119</v>
@@ -1278,7 +1281,7 @@
         <v>125</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>126</v>
@@ -1287,28 +1290,28 @@
         <v>127</v>
       </c>
       <c r="AT2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DS2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="DT2" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>26.63838307</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
